--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -30,94 +30,31 @@
     <t>time</t>
   </si>
   <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2023-06-02</t>
-  </si>
-  <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
-    <t>2023-06-04</t>
-  </si>
-  <si>
     <t>10:00</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>contoh task arik 1</t>
-  </si>
-  <si>
-    <t>contoh task arik 2</t>
-  </si>
-  <si>
-    <t>contoh task arik 3</t>
-  </si>
-  <si>
-    <t>contoh task arik 4</t>
-  </si>
-  <si>
-    <t>contoh task arik 5</t>
-  </si>
-  <si>
-    <t>contoh task arik 6</t>
-  </si>
-  <si>
-    <t>contoh task arik 7</t>
-  </si>
-  <si>
-    <t>contoh task arik 8</t>
-  </si>
-  <si>
-    <t>contoh task arik 9</t>
-  </si>
-  <si>
-    <t>contoh task arik 10</t>
-  </si>
-  <si>
-    <t>contoh task arik 11</t>
-  </si>
-  <si>
-    <t>contoh task arik 12</t>
-  </si>
-  <si>
-    <t>contoh task arik 13</t>
-  </si>
-  <si>
-    <t>contoh task arik 14</t>
-  </si>
-  <si>
-    <t>contoh task arik 15</t>
-  </si>
-  <si>
-    <t>contoh task arik 16</t>
-  </si>
-  <si>
-    <t>contoh task arik 17</t>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>contoh task import 1</t>
+  </si>
+  <si>
+    <t>contoh task import 2</t>
+  </si>
+  <si>
+    <t>contoh task import 3</t>
+  </si>
+  <si>
+    <t>contoh task import 4</t>
   </si>
 </sst>
 </file>
@@ -458,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,189 +421,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -39,12 +39,6 @@
     <t>09:00</t>
   </si>
   <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
     <t>contoh task import 1</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>contoh task import 4</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,10 +421,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -5,21 +5,21 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-A4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogja3\Downloads\Dnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -30,42 +30,96 @@
     <t>time</t>
   </si>
   <si>
-    <t>08:00</t>
+    <t>Beres beres gudang jakarta</t>
+  </si>
+  <si>
+    <t>Stock opname gudang online jakarta</t>
+  </si>
+  <si>
+    <t>Print orderan GOLJKT file PDF</t>
+  </si>
+  <si>
+    <t>Pembuatan Sales Order (SO) di csa Win prncpel dan online</t>
+  </si>
+  <si>
+    <t>Istirahat</t>
+  </si>
+  <si>
+    <t>Pembuatan Surat Jalan (SJ) di csa Win prncpel dan online</t>
+  </si>
+  <si>
+    <t>Proses packing orderan online</t>
+  </si>
+  <si>
+    <t>Pembuatan serah terima  orderan online</t>
+  </si>
+  <si>
+    <t>Bantu packing orderan grosir</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>contoh task import 1</t>
-  </si>
-  <si>
-    <t>contoh task import 2</t>
-  </si>
-  <si>
-    <t>contoh task import 3</t>
-  </si>
-  <si>
-    <t>contoh task import 4</t>
-  </si>
-  <si>
-    <t>2023-06-12</t>
-  </si>
-  <si>
-    <t>2023-06-13</t>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:29</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>2023-07-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,24 +450,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -421,46 +475,596 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogja3\Downloads\Dnd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="18855" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="144525" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -30,96 +25,120 @@
     <t>time</t>
   </si>
   <si>
-    <t>Beres beres gudang jakarta</t>
-  </si>
-  <si>
-    <t>Stock opname gudang online jakarta</t>
-  </si>
-  <si>
-    <t>Print orderan GOLJKT file PDF</t>
-  </si>
-  <si>
-    <t>Pembuatan Sales Order (SO) di csa Win prncpel dan online</t>
-  </si>
-  <si>
-    <t>Istirahat</t>
-  </si>
-  <si>
-    <t>Pembuatan Surat Jalan (SJ) di csa Win prncpel dan online</t>
-  </si>
-  <si>
-    <t>Proses packing orderan online</t>
-  </si>
-  <si>
-    <t>Pembuatan serah terima  orderan online</t>
-  </si>
-  <si>
-    <t>Bantu packing orderan grosir</t>
+    <t>09:00</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>13:29</t>
-  </si>
-  <si>
-    <t>14:20</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>19:00</t>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
   </si>
   <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>2023-07-11</t>
-  </si>
-  <si>
-    <t>2023-07-12</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
-    <t>2023-07-15</t>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>Review To Do List CV CS &amp; achievement audit CV Maju</t>
+  </si>
+  <si>
+    <t>Morning briefing Retail</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>Meeting Kospin SMS</t>
+  </si>
+  <si>
+    <t>Review LHP week 36</t>
+  </si>
+  <si>
+    <t>Review achievement AMPM/KPI To Do List &amp; Do &amp; Done week 37</t>
+  </si>
+  <si>
+    <t>Izin perpanjangan STNK</t>
+  </si>
+  <si>
+    <t>Seminar Audit CTIA</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>Review To Do List</t>
+  </si>
+  <si>
+    <t>Review KPI CV Maju Tecnology</t>
+  </si>
+  <si>
+    <t>Review SOA Trenly dengan Michael &amp; Sunandar</t>
+  </si>
+  <si>
+    <t>Review stock opname persediaan &amp; hanger Trenly Karawaci</t>
+  </si>
+  <si>
+    <t>Zoom meeting IHC</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review To Do List </t>
+  </si>
+  <si>
+    <t>Review formula Momoyo dengan Radit</t>
+  </si>
+  <si>
+    <t>Review LHP week 37</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>Review hasil follow up cash pending PT MKLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting finding PT MKLI (hasil SO virtual, SO visit, CCTV &amp; retur) </t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>Review hasil audit Telemarketing &amp; SO Depo CV Maju</t>
+  </si>
+  <si>
+    <t>Meeting CV SMJ (BPKB, progress lelang)</t>
+  </si>
+  <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Manager</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,10 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,9 +173,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,16 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,596 +493,288 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -34,100 +34,109 @@
     <t>11:00</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>Review To Do List</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Morning briefing Retail</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review To Do List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPJ Coordinator Internal Audit </t>
+  </si>
+  <si>
+    <t>Meeting Kospin SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 </t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>Perjalanan ke Jakarta</t>
+  </si>
+  <si>
+    <t>Review achievement AMPM/KPI To Do List &amp; Do &amp; Done week 40</t>
+  </si>
+  <si>
+    <t>Create AMPM/To Do List Teddy</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>Review To Do List CV CS &amp; achievement audit CV Maju</t>
-  </si>
-  <si>
-    <t>Morning briefing Retail</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>Meeting Kospin SMS</t>
-  </si>
-  <si>
-    <t>Review LHP week 36</t>
-  </si>
-  <si>
-    <t>Review achievement AMPM/KPI To Do List &amp; Do &amp; Done week 37</t>
-  </si>
-  <si>
-    <t>Izin perpanjangan STNK</t>
-  </si>
-  <si>
-    <t>Seminar Audit CTIA</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>Review To Do List</t>
-  </si>
-  <si>
-    <t>Review KPI CV Maju Tecnology</t>
-  </si>
-  <si>
-    <t>Review SOA Trenly dengan Michael &amp; Sunandar</t>
-  </si>
-  <si>
-    <t>Review stock opname persediaan &amp; hanger Trenly Karawaci</t>
-  </si>
-  <si>
-    <t>Zoom meeting IHC</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review To Do List </t>
-  </si>
-  <si>
-    <t>Review formula Momoyo dengan Radit</t>
-  </si>
-  <si>
-    <t>Review LHP week 37</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>Review hasil follow up cash pending PT MKLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting finding PT MKLI (hasil SO virtual, SO visit, CCTV &amp; retur) </t>
-  </si>
-  <si>
-    <t>2023-09-21</t>
-  </si>
-  <si>
-    <t>Review hasil audit Telemarketing &amp; SO Depo CV Maju</t>
-  </si>
-  <si>
-    <t>Meeting CV SMJ (BPKB, progress lelang)</t>
-  </si>
-  <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>Cuti Bersama Manager</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
+    <t>Stock opname Gudang MMI Prima Center</t>
+  </si>
+  <si>
+    <t>Penelusuran selisih Trenly Tambun</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>Review LHP week 40</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>Review audit CV Maju Technology dengan Joe di Ocean Space</t>
+  </si>
+  <si>
+    <t>Review audit CCTV &amp; audit konsumen dengan Eni di Ocean Space</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>Review finding status dengan Faizal &amp; Lula</t>
+  </si>
+  <si>
+    <t>appraisal dengan Fajar di CS</t>
+  </si>
+  <si>
+    <t>Review Telemarketing</t>
+  </si>
+  <si>
+    <t>Review audit Dolphin dengan Ridwan</t>
+  </si>
+  <si>
+    <t>LHP week 40</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting CV SMJ </t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>Upgrade skill audit CV CS</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,230 +502,230 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -724,32 +733,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -757,10 +766,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -768,13 +777,24 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>date</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Review To Do List</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
     <t>Morning briefing Retail</t>
   </si>
   <si>
@@ -58,96 +55,87 @@
     <t xml:space="preserve">Review To Do List </t>
   </si>
   <si>
-    <t xml:space="preserve">LPJ Coordinator Internal Audit </t>
-  </si>
-  <si>
     <t>Meeting Kospin SMS</t>
   </si>
   <si>
-    <t xml:space="preserve">14:00 </t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>Perjalanan ke Jakarta</t>
-  </si>
-  <si>
-    <t>Review achievement AMPM/KPI To Do List &amp; Do &amp; Done week 40</t>
-  </si>
-  <si>
-    <t>Create AMPM/To Do List Teddy</t>
-  </si>
-  <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>Stock opname Gudang MMI Prima Center</t>
-  </si>
-  <si>
-    <t>Penelusuran selisih Trenly Tambun</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>Review LHP week 40</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>Review audit CV Maju Technology dengan Joe di Ocean Space</t>
-  </si>
-  <si>
-    <t>Review audit CCTV &amp; audit konsumen dengan Eni di Ocean Space</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>Review finding status dengan Faizal &amp; Lula</t>
-  </si>
-  <si>
-    <t>appraisal dengan Fajar di CS</t>
-  </si>
-  <si>
-    <t>Review Telemarketing</t>
-  </si>
-  <si>
-    <t>Review audit Dolphin dengan Ridwan</t>
-  </si>
-  <si>
-    <t>LHP week 40</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting CV SMJ </t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>Upgrade skill audit CV CS</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
+    <t>Review LHP week 44</t>
+  </si>
+  <si>
+    <t>Review achievement AMPM/KPI To Do List &amp; Do &amp; Done week 45</t>
+  </si>
+  <si>
+    <t>Create AMPM week 46</t>
+  </si>
+  <si>
+    <t>Review hasil stock opname Gudang PT MMI &amp; selisih setoran Trenly Tambun</t>
+  </si>
+  <si>
+    <t>Review audit SMJ: fisik SHM (covernote), berkas kredit (NAP)</t>
+  </si>
+  <si>
+    <t>Sharing session Audit, Verifikasi &amp; Investigasi di Kospin SMS</t>
+  </si>
+  <si>
+    <t>Review visit outlet distribution sales</t>
+  </si>
+  <si>
+    <t>LPJ Coordinator Audit (via Google Meet)</t>
+  </si>
+  <si>
+    <t>Review realisasi bundling, buku customer, buku COD</t>
+  </si>
+  <si>
+    <t>Review audit CV Maju Technology (via Google Meet)</t>
+  </si>
+  <si>
+    <t>Izin rontgent</t>
+  </si>
+  <si>
+    <t>Cuti Bersama Manager</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit &amp; review AutoEV </t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review koreksi stok &amp; cashback toko retail </t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,9 +158,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,304 +490,250 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+      <c r="A2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
+      <c r="A5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
+      <c r="A6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
+      <c r="A7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
+      <c r="A8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
+      <c r="A16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
+      <c r="A17" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
+      <c r="A22" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>